--- a/resources/experiment 2/metrics/MAPE/upto time/Microalbuminuria (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Microalbuminuria (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63280697070512.35</v>
+        <v>2405465389304.486</v>
       </c>
       <c r="C3" t="n">
-        <v>63343091716233.95</v>
+        <v>2425524891177.107</v>
       </c>
       <c r="D3" t="n">
-        <v>63343091716233.95</v>
+        <v>665434837958216.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253310870993693.6</v>
+        <v>2500259559811.525</v>
       </c>
       <c r="C4" t="n">
-        <v>254284211564890.8</v>
+        <v>2435619873602.625</v>
       </c>
       <c r="D4" t="n">
-        <v>254284211564890.8</v>
+        <v>135167942608947.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6328233247758392</v>
+        <v>577425208653826.9</v>
       </c>
       <c r="C5" t="n">
-        <v>6328233247758392</v>
+        <v>943062717515231.5</v>
       </c>
       <c r="D5" t="n">
-        <v>6328233247758392</v>
+        <v>4391259312892450</v>
       </c>
     </row>
   </sheetData>
